--- a/Proyecto Seguimiento Ductos/Locales propios Noviembre Original Actualizado.xlsx
+++ b/Proyecto Seguimiento Ductos/Locales propios Noviembre Original Actualizado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CR1S714N/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CR1S714N/Documents/Repositorios GitHub/Proyecto Seguimiento Ductos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7AE362-BFEB-A84E-992C-B957688E0144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C63167-265D-A84A-BCBE-DDA452959CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="500" windowWidth="27620" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27620" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCALES" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="682">
   <si>
     <t>LOCAL</t>
   </si>
@@ -2421,7 +2421,7 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2723,8 +2723,8 @@
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P99" sqref="P99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
@@ -7146,9 +7146,7 @@
       <c r="O99" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="P99" s="19" t="s">
-        <v>658</v>
-      </c>
+      <c r="P99" s="19"/>
     </row>
     <row r="100" spans="1:16" ht="17.5" customHeight="1">
       <c r="A100" s="22"/>
@@ -7512,6 +7510,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F39BBAC46D734447A283C65D048ED70F" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="28974d95673fc266bdd784aac00b3c2f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9d741243-d482-4b31-bd61-a2c5e45d520f" xmlns:ns4="45d9e316-ba55-4ea7-b709-8da45bc37113" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a0d93fe71301f0fbdde4eb7e037e5a5" ns3:_="" ns4:_="">
     <xsd:import namespace="9d741243-d482-4b31-bd61-a2c5e45d520f"/>
@@ -7734,12 +7738,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA5635C-A894-4C77-A154-EB6C7C0BCD92}">
   <ds:schemaRefs>
@@ -7749,6 +7747,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE437AA7-6A1A-4BBA-A399-99845E100936}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE0B1FAE-0D7D-4A2A-B12C-53DD1DC683E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7765,13 +7772,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE437AA7-6A1A-4BBA-A399-99845E100936}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>